--- a/data/value.xlsx
+++ b/data/value.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,93 +26,119 @@
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>NRG</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>NRG Energy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> Inc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>8.780B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>MGM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>MGM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> Resorts</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> International</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>8.932B</t>
-    </r>
-  </si>
-  <si>
-    <t>VNO</t>
-  </si>
-  <si>
-    <t>Vornado Realty Trust</t>
-  </si>
-  <si>
-    <t>7.549B</t>
+      <t>QEP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>QEP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Resources Inc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>377.80M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>NOG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Northern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Oil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Gas Inc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>430.14M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>CPE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Callon Petroleum Co</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>563.74M</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0."/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -122,20 +148,6 @@
     <font>
       <sz val="11.5"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,12 +182,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -183,10 +193,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -516,23 +527,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30">
+    <row r="1" spans="1:5" ht="45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,58 +551,53 @@
         <v>1</v>
       </c>
       <c r="C1" s="2">
-        <v>35.97</v>
+        <v>1.56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2">
-        <v>2.3119999999999998</v>
+      <c r="E1" s="3">
+        <v>0.96299999999999997</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="45">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.2769999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>39.5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" s="2">
+        <v>1.42</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>2.5830000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="60">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>18.11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="2">
-        <v>3.2629999999999999</v>
+        <v>1.5780000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14"/>
     <row r="5" spans="1:5" ht="14"/>
-    <row r="6" spans="1:5" ht="14"/>
-    <row r="7" spans="1:5" ht="14" customHeight="1"/>
-    <row r="8" spans="1:5" ht="14"/>
-    <row r="9" spans="1:5" ht="14"/>
   </sheetData>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/data/value.xlsx
+++ b/data/value.xlsx
@@ -26,107 +26,93 @@
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>QEP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>QEP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> Resources Inc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>377.80M</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>NOG</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Northern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> Oil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> &amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> Gas Inc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>430.14M</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>CPE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Callon Petroleum Co</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>563.74M</t>
+      <t>UNM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Unum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Group</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>2.943B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>MET</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>MetLife</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Inc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>29.40B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>SYF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Synchrony Financial</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>10.29B</t>
     </r>
   </si>
 </sst>
@@ -134,9 +120,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0."/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -185,15 +170,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -530,20 +512,20 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45">
+    <row r="1" spans="1:5" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,16 +533,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2">
-        <v>1.56</v>
+        <v>14.47</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3">
-        <v>0.96299999999999997</v>
+      <c r="E1" s="2">
+        <v>3.0659999999999998</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45">
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -568,16 +550,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>1.06</v>
+        <v>32.39</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2">
-        <v>1.2769999999999999</v>
+        <v>3.4460000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45">
+    <row r="3" spans="1:5" ht="60">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -585,13 +567,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>1.42</v>
+        <v>17.63</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="2">
-        <v>1.5780000000000001</v>
+        <v>3.9710000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14"/>

--- a/data/value.xlsx
+++ b/data/value.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,57 +19,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>UNM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Unum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> Group</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>2.943B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>MET</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>MetLife</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>CJPRY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Central Japan Railway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Co</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>32.79B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>TRN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Trinity Industries</t>
     </r>
     <r>
       <rPr>
@@ -85,34 +85,39 @@
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>29.40B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>SYF</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Synchrony Financial</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>10.29B</t>
+      <t>WJRYY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>West</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Japan Railway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Co</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>11.53B</t>
     </r>
   </si>
 </sst>
@@ -170,8 +175,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -509,23 +523,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" customWidth="1"/>
-    <col min="3" max="3" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" customWidth="1"/>
+    <col min="3" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,16 +545,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2">
-        <v>14.47</v>
+        <v>16.72</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2">
-        <v>3.0659999999999998</v>
+      <c r="E1" s="1">
+        <v>7.9160000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -550,35 +562,49 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>32.39</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>22.19</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.6158000000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2">
-        <v>3.4460000000000002</v>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>60.24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>10.28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
-        <v>17.63</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3.9710000000000001</v>
-      </c>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="14"/>
     <row r="5" spans="1:5" ht="14"/>
+    <row r="6" spans="1:5" ht="14"/>
+    <row r="7" spans="1:5" ht="14"/>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/data/value.xlsx
+++ b/data/value.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>CJPRY</t>
+      <t xml:space="preserve">AMRS </t>
     </r>
   </si>
   <si>
@@ -35,99 +35,38 @@
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>Central Japan Railway</t>
+      <t xml:space="preserve">TLRY </t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t xml:space="preserve"> Co</t>
+      <t>GWPH</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>32.79B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>TRN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Trinity Industries</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> Inc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>WJRYY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>West</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> Japan Railway</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> Co</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>11.53B</t>
-    </r>
+    <t>Amyris Inc</t>
+  </si>
+  <si>
+    <t>Tilray Inc</t>
+  </si>
+  <si>
+    <t>GW Pharmaceuticals PLC</t>
+  </si>
+  <si>
+    <t>827.68M</t>
+  </si>
+  <si>
+    <t>992.65M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0."/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,40 +96,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,88 +442,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="44.83203125" customWidth="1"/>
-    <col min="3" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1">
+        <v>3.0510000000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
-        <v>16.72</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>7.9160000000000004</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
-        <v>22.19</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2.6158000000000001</v>
-      </c>
-      <c r="E2" s="1">
-        <v>10.23</v>
+      <c r="C2">
+        <v>7.95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>4.1909999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
-        <v>60.24</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4">
-        <v>10.28</v>
+      <c r="C3">
+        <v>120.2</v>
+      </c>
+      <c r="D3">
+        <v>3.7366000000000001</v>
+      </c>
+      <c r="E3">
+        <v>9.5389999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="14"/>
-    <row r="6" spans="1:5" ht="14"/>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1"/>
+    </row>
     <row r="7" spans="1:5" ht="14"/>
+    <row r="8" spans="1:5" ht="14"/>
+    <row r="9" spans="1:5" ht="14"/>
+    <row r="10" spans="1:5" ht="14"/>
+    <row r="11" spans="1:5" ht="14"/>
+    <row r="12" spans="1:5" ht="14"/>
+    <row r="13" spans="1:5" ht="14"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-  </mergeCells>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/data/value.xlsx
+++ b/data/value.xlsx
@@ -19,64 +19,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">AMRS </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">TLRY </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>GWPH</t>
-    </r>
-  </si>
-  <si>
-    <t>Amyris Inc</t>
-  </si>
-  <si>
-    <t>Tilray Inc</t>
-  </si>
-  <si>
-    <t>GW Pharmaceuticals PLC</t>
-  </si>
-  <si>
-    <t>827.68M</t>
-  </si>
-  <si>
-    <t>992.65M</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>JCI</t>
+  </si>
+  <si>
+    <t>Johnson Controls International PLC</t>
+  </si>
+  <si>
+    <t>ALK</t>
+  </si>
+  <si>
+    <t>Alaska Air Group Inc</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>United Airlines Holdings Inc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11.5"/>
-      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,14 +59,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -106,11 +71,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,81 +404,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" customWidth="1"/>
+    <col min="3" max="5" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D1">
+        <v>27.376000000000001</v>
       </c>
       <c r="E1">
-        <v>3.0510000000000002</v>
+        <v>6.0830000000000002</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>7.95</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+        <v>35.89</v>
+      </c>
+      <c r="D2">
+        <v>4.4005999999999998</v>
       </c>
       <c r="E2">
-        <v>4.1909999999999998</v>
+        <v>8.3859999999999992</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>120.2</v>
+        <v>32.33</v>
       </c>
       <c r="D3">
-        <v>3.7366000000000001</v>
+        <v>9.3905999999999992</v>
       </c>
       <c r="E3">
-        <v>9.5389999999999997</v>
+        <v>8.7850000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="14"/>
-    <row r="8" spans="1:5" ht="14"/>
-    <row r="9" spans="1:5" ht="14"/>
-    <row r="10" spans="1:5" ht="14"/>
-    <row r="11" spans="1:5" ht="14"/>
-    <row r="12" spans="1:5" ht="14"/>
-    <row r="13" spans="1:5" ht="14"/>
+    <row r="6" spans="1:5" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>
   <extLst>
